--- a/StructureDefinition-med-view-comp.xlsx
+++ b/StructureDefinition-med-view-comp.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-21T14:58:08+00:00</t>
+    <t>2022-03-25T12:46:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-med-view-comp.xlsx
+++ b/StructureDefinition-med-view-comp.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-25T12:46:50+00:00</t>
+    <t>2022-03-25T12:55:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-med-view-comp.xlsx
+++ b/StructureDefinition-med-view-comp.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-25T12:55:42+00:00</t>
+    <t>2022-03-25T14:39:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-med-view-comp.xlsx
+++ b/StructureDefinition-med-view-comp.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-25T14:39:23+00:00</t>
+    <t>2022-04-04T13:17:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-med-view-comp.xlsx
+++ b/StructureDefinition-med-view-comp.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$111</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$97</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4065" uniqueCount="436">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3556" uniqueCount="435">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-04T13:17:06+00:00</t>
+    <t>2022-04-08T09:50:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -560,6 +560,14 @@
     <t>Key metadata element describing the composition, used in searching/filtering.</t>
   </si>
   <si>
+    <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
+  &lt;coding&gt;
+    &lt;system value="http://hl7belgium.org/fhir/riziv-medicationrecord/CodeSystem/be-cs-medication-summary-types"/&gt;
+    &lt;code value="Summary"/&gt;
+  &lt;/coding&gt;
+&lt;/valueCodeableConcept&gt;</t>
+  </si>
+  <si>
     <t>Type of a composition.</t>
   </si>
   <si>
@@ -1347,13 +1355,6 @@
   </si>
   <si>
     <t xml:space="preserve">Reference(http://hl7belgium.org/fhir/riziv-medicationrecord/StructureDefinition/MedRecordTreatmentLine)
-</t>
-  </si>
-  <si>
-    <t>MedRecordMedicationSummaryView</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(http://hl7belgium.org/fhir/riziv-medicationrecord/StructureDefinition/MedRecordMedicationSummaryView)
 </t>
   </si>
   <si>
@@ -1681,7 +1682,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN111"/>
+  <dimension ref="A1:AN97"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1691,7 +1692,7 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="38.83203125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="34.640625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="24.82421875" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
@@ -3157,7 +3158,7 @@
         <v>77</v>
       </c>
       <c r="R13" t="s" s="2">
-        <v>77</v>
+        <v>175</v>
       </c>
       <c r="S13" t="s" s="2">
         <v>77</v>
@@ -3175,10 +3176,10 @@
         <v>113</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Z13" t="s" s="2">
         <v>77</v>
@@ -3211,24 +3212,24 @@
         <v>101</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AN13" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -3254,16 +3255,16 @@
         <v>170</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="O14" t="s" s="2">
         <v>77</v>
@@ -3288,13 +3289,13 @@
         <v>77</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Z14" t="s" s="2">
         <v>77</v>
@@ -3312,7 +3313,7 @@
         <v>77</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>78</v>
@@ -3327,24 +3328,24 @@
         <v>101</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AL14" t="s" s="2">
         <v>166</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -3367,19 +3368,19 @@
         <v>90</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="O15" t="s" s="2">
         <v>77</v>
@@ -3428,7 +3429,7 @@
         <v>77</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>78</v>
@@ -3446,21 +3447,21 @@
         <v>77</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -3483,17 +3484,17 @@
         <v>90</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="M16" s="2"/>
       <c r="N16" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="O16" t="s" s="2">
         <v>77</v>
@@ -3542,7 +3543,7 @@
         <v>77</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>78</v>
@@ -3557,24 +3558,24 @@
         <v>101</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -3597,19 +3598,19 @@
         <v>90</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="O17" t="s" s="2">
         <v>77</v>
@@ -3658,7 +3659,7 @@
         <v>77</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>89</v>
@@ -3673,24 +3674,24 @@
         <v>101</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -3713,17 +3714,17 @@
         <v>90</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="M18" s="2"/>
       <c r="N18" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="O18" t="s" s="2">
         <v>77</v>
@@ -3772,7 +3773,7 @@
         <v>77</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>89</v>
@@ -3787,24 +3788,24 @@
         <v>101</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -3830,13 +3831,13 @@
         <v>91</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
@@ -3886,7 +3887,7 @@
         <v>77</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>89</v>
@@ -3904,13 +3905,13 @@
         <v>77</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="AN19" t="s" s="2">
         <v>77</v>
@@ -3918,7 +3919,7 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -3944,13 +3945,13 @@
         <v>109</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
@@ -3979,10 +3980,10 @@
         <v>161</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Z20" t="s" s="2">
         <v>77</v>
@@ -4000,7 +4001,7 @@
         <v>77</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>78</v>
@@ -4018,13 +4019,13 @@
         <v>77</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AN20" t="s" s="2">
         <v>77</v>
@@ -4032,7 +4033,7 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -4055,19 +4056,19 @@
         <v>77</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="O21" t="s" s="2">
         <v>77</v>
@@ -4116,7 +4117,7 @@
         <v>77</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>78</v>
@@ -4134,13 +4135,13 @@
         <v>77</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AN21" t="s" s="2">
         <v>77</v>
@@ -4148,7 +4149,7 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -4174,10 +4175,10 @@
         <v>91</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
@@ -4228,7 +4229,7 @@
         <v>77</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>78</v>
@@ -4260,7 +4261,7 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -4289,7 +4290,7 @@
         <v>136</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="M23" t="s" s="2">
         <v>138</v>
@@ -4342,7 +4343,7 @@
         <v>77</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>78</v>
@@ -4374,11 +4375,11 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
@@ -4400,10 +4401,10 @@
         <v>135</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="M24" t="s" s="2">
         <v>138</v>
@@ -4458,7 +4459,7 @@
         <v>77</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>78</v>
@@ -4490,7 +4491,7 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -4516,14 +4517,14 @@
         <v>109</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="M25" s="2"/>
       <c r="N25" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="O25" t="s" s="2">
         <v>77</v>
@@ -4551,10 +4552,10 @@
         <v>161</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Z25" t="s" s="2">
         <v>77</v>
@@ -4572,7 +4573,7 @@
         <v>77</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>89</v>
@@ -4590,10 +4591,10 @@
         <v>77</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>77</v>
@@ -4604,7 +4605,7 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4627,17 +4628,17 @@
         <v>77</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="O26" t="s" s="2">
         <v>77</v>
@@ -4686,7 +4687,7 @@
         <v>77</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>78</v>
@@ -4704,10 +4705,10 @@
         <v>77</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>77</v>
@@ -4718,7 +4719,7 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4741,17 +4742,17 @@
         <v>77</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="O27" t="s" s="2">
         <v>77</v>
@@ -4800,7 +4801,7 @@
         <v>77</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>78</v>
@@ -4818,21 +4819,21 @@
         <v>77</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4855,19 +4856,19 @@
         <v>90</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="O28" t="s" s="2">
         <v>77</v>
@@ -4916,7 +4917,7 @@
         <v>77</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>78</v>
@@ -4934,13 +4935,13 @@
         <v>77</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>77</v>
@@ -4948,7 +4949,7 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4971,16 +4972,16 @@
         <v>77</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
@@ -5030,7 +5031,7 @@
         <v>77</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>78</v>
@@ -5048,13 +5049,13 @@
         <v>77</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>77</v>
@@ -5062,7 +5063,7 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -5088,10 +5089,10 @@
         <v>91</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
@@ -5142,7 +5143,7 @@
         <v>77</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>78</v>
@@ -5174,7 +5175,7 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5203,7 +5204,7 @@
         <v>136</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="M31" t="s" s="2">
         <v>138</v>
@@ -5256,7 +5257,7 @@
         <v>77</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>78</v>
@@ -5288,11 +5289,11 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
@@ -5314,10 +5315,10 @@
         <v>135</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="M32" t="s" s="2">
         <v>138</v>
@@ -5372,7 +5373,7 @@
         <v>77</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>78</v>
@@ -5404,7 +5405,7 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5430,13 +5431,13 @@
         <v>109</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
@@ -5465,10 +5466,10 @@
         <v>161</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Z33" t="s" s="2">
         <v>77</v>
@@ -5486,7 +5487,7 @@
         <v>77</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>89</v>
@@ -5504,13 +5505,13 @@
         <v>77</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>77</v>
@@ -5518,7 +5519,7 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5541,13 +5542,13 @@
         <v>77</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
@@ -5598,7 +5599,7 @@
         <v>77</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>89</v>
@@ -5616,13 +5617,13 @@
         <v>77</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>77</v>
@@ -5630,7 +5631,7 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5653,19 +5654,19 @@
         <v>90</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="O35" t="s" s="2">
         <v>77</v>
@@ -5714,7 +5715,7 @@
         <v>77</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>78</v>
@@ -5732,13 +5733,13 @@
         <v>77</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>77</v>
@@ -5746,7 +5747,7 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5772,10 +5773,10 @@
         <v>91</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
@@ -5826,7 +5827,7 @@
         <v>77</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>78</v>
@@ -5858,7 +5859,7 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5887,7 +5888,7 @@
         <v>136</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="M37" t="s" s="2">
         <v>138</v>
@@ -5940,7 +5941,7 @@
         <v>77</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>78</v>
@@ -5972,11 +5973,11 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
@@ -5998,10 +5999,10 @@
         <v>135</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="M38" t="s" s="2">
         <v>138</v>
@@ -6056,7 +6057,7 @@
         <v>77</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>78</v>
@@ -6088,7 +6089,7 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6114,13 +6115,13 @@
         <v>170</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
@@ -6146,13 +6147,13 @@
         <v>77</v>
       </c>
       <c r="W39" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="Z39" t="s" s="2">
         <v>77</v>
@@ -6170,7 +6171,7 @@
         <v>77</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>78</v>
@@ -6188,13 +6189,13 @@
         <v>77</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>77</v>
@@ -6202,7 +6203,7 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6225,13 +6226,13 @@
         <v>90</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
@@ -6282,7 +6283,7 @@
         <v>77</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>78</v>
@@ -6300,13 +6301,13 @@
         <v>77</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>77</v>
@@ -6314,7 +6315,7 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6337,13 +6338,13 @@
         <v>90</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
@@ -6394,7 +6395,7 @@
         <v>77</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>78</v>
@@ -6412,7 +6413,7 @@
         <v>77</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>166</v>
@@ -6426,7 +6427,7 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6449,13 +6450,13 @@
         <v>77</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="M42" s="2"/>
       <c r="N42" s="2"/>
@@ -6494,17 +6495,17 @@
         <v>77</v>
       </c>
       <c r="AA42" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="AB42" s="2"/>
       <c r="AC42" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD42" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>78</v>
@@ -6516,16 +6517,16 @@
         <v>77</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="AJ42" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>77</v>
@@ -6536,7 +6537,7 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6562,10 +6563,10 @@
         <v>91</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="M43" s="2"/>
       <c r="N43" s="2"/>
@@ -6616,7 +6617,7 @@
         <v>77</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>78</v>
@@ -6648,7 +6649,7 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6677,7 +6678,7 @@
         <v>136</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="M44" t="s" s="2">
         <v>138</v>
@@ -6730,7 +6731,7 @@
         <v>77</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>78</v>
@@ -6762,11 +6763,11 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
@@ -6788,10 +6789,10 @@
         <v>135</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="M45" t="s" s="2">
         <v>138</v>
@@ -6846,7 +6847,7 @@
         <v>77</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>78</v>
@@ -6878,11 +6879,11 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
@@ -6904,16 +6905,16 @@
         <v>91</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="O46" t="s" s="2">
         <v>77</v>
@@ -6962,7 +6963,7 @@
         <v>77</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>78</v>
@@ -6980,10 +6981,10 @@
         <v>77</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>77</v>
@@ -6994,7 +6995,7 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -7020,16 +7021,16 @@
         <v>170</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="O47" t="s" s="2">
         <v>77</v>
@@ -7054,13 +7055,13 @@
         <v>77</v>
       </c>
       <c r="W47" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="Z47" t="s" s="2">
         <v>77</v>
@@ -7078,7 +7079,7 @@
         <v>77</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>78</v>
@@ -7096,10 +7097,10 @@
         <v>77</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>77</v>
@@ -7110,7 +7111,7 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7133,17 +7134,17 @@
         <v>77</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="M48" s="2"/>
       <c r="N48" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="O48" t="s" s="2">
         <v>77</v>
@@ -7192,7 +7193,7 @@
         <v>77</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>78</v>
@@ -7210,21 +7211,21 @@
         <v>77</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7247,16 +7248,16 @@
         <v>77</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
@@ -7306,7 +7307,7 @@
         <v>77</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>78</v>
@@ -7327,7 +7328,7 @@
         <v>77</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>77</v>
@@ -7338,7 +7339,7 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7364,13 +7365,13 @@
         <v>119</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
@@ -7420,7 +7421,7 @@
         <v>77</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>78</v>
@@ -7429,7 +7430,7 @@
         <v>89</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>101</v>
@@ -7438,10 +7439,10 @@
         <v>77</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>77</v>
@@ -7452,7 +7453,7 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7478,16 +7479,16 @@
         <v>109</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="O51" t="s" s="2">
         <v>77</v>
@@ -7515,10 +7516,10 @@
         <v>161</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="Z51" t="s" s="2">
         <v>77</v>
@@ -7536,7 +7537,7 @@
         <v>77</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>78</v>
@@ -7554,7 +7555,7 @@
         <v>77</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>166</v>
@@ -7563,12 +7564,12 @@
         <v>77</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7594,16 +7595,16 @@
         <v>170</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="O52" t="s" s="2">
         <v>77</v>
@@ -7631,10 +7632,10 @@
         <v>113</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="Z52" t="s" s="2">
         <v>77</v>
@@ -7652,7 +7653,7 @@
         <v>77</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>78</v>
@@ -7670,7 +7671,7 @@
         <v>77</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>166</v>
@@ -7684,7 +7685,7 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7707,16 +7708,16 @@
         <v>77</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
@@ -7766,7 +7767,7 @@
         <v>77</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>78</v>
@@ -7775,7 +7776,7 @@
         <v>79</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="AI53" t="s" s="2">
         <v>101</v>
@@ -7784,10 +7785,10 @@
         <v>77</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>77</v>
@@ -7798,7 +7799,7 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -7824,16 +7825,16 @@
         <v>170</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="O54" t="s" s="2">
         <v>77</v>
@@ -7861,10 +7862,10 @@
         <v>113</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="Z54" t="s" s="2">
         <v>77</v>
@@ -7882,7 +7883,7 @@
         <v>77</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>78</v>
@@ -7891,7 +7892,7 @@
         <v>89</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="AI54" t="s" s="2">
         <v>101</v>
@@ -7900,7 +7901,7 @@
         <v>77</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>166</v>
@@ -7914,7 +7915,7 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -7940,13 +7941,13 @@
         <v>77</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
@@ -7996,7 +7997,7 @@
         <v>77</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>78</v>
@@ -8005,7 +8006,7 @@
         <v>79</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="AI55" t="s" s="2">
         <v>101</v>
@@ -8014,10 +8015,10 @@
         <v>77</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>77</v>
@@ -8028,10 +8029,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="C56" t="s" s="2">
         <v>77</v>
@@ -8053,13 +8054,13 @@
         <v>77</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="M56" s="2"/>
       <c r="N56" s="2"/>
@@ -8110,7 +8111,7 @@
         <v>77</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>78</v>
@@ -8122,16 +8123,16 @@
         <v>77</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="AJ56" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>77</v>
@@ -8142,7 +8143,7 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8168,10 +8169,10 @@
         <v>91</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="M57" s="2"/>
       <c r="N57" s="2"/>
@@ -8222,7 +8223,7 @@
         <v>77</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>78</v>
@@ -8254,7 +8255,7 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8283,7 +8284,7 @@
         <v>136</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="M58" t="s" s="2">
         <v>138</v>
@@ -8336,7 +8337,7 @@
         <v>77</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>78</v>
@@ -8368,11 +8369,11 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s" s="2">
@@ -8394,10 +8395,10 @@
         <v>135</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="M59" t="s" s="2">
         <v>138</v>
@@ -8452,7 +8453,7 @@
         <v>77</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>78</v>
@@ -8484,11 +8485,11 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" t="s" s="2">
@@ -8510,16 +8511,16 @@
         <v>91</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="O60" t="s" s="2">
         <v>77</v>
@@ -8568,7 +8569,7 @@
         <v>77</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>78</v>
@@ -8586,10 +8587,10 @@
         <v>77</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>77</v>
@@ -8600,7 +8601,7 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -8626,16 +8627,16 @@
         <v>170</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="O61" t="s" s="2">
         <v>77</v>
@@ -8660,13 +8661,13 @@
         <v>77</v>
       </c>
       <c r="W61" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="Z61" t="s" s="2">
         <v>77</v>
@@ -8684,7 +8685,7 @@
         <v>77</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>78</v>
@@ -8702,10 +8703,10 @@
         <v>77</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>77</v>
@@ -8716,7 +8717,7 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -8739,17 +8740,17 @@
         <v>77</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="M62" s="2"/>
       <c r="N62" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="O62" t="s" s="2">
         <v>77</v>
@@ -8798,7 +8799,7 @@
         <v>77</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>78</v>
@@ -8816,21 +8817,21 @@
         <v>77</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -8853,16 +8854,16 @@
         <v>77</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
@@ -8912,7 +8913,7 @@
         <v>77</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>78</v>
@@ -8933,7 +8934,7 @@
         <v>77</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>77</v>
@@ -8944,7 +8945,7 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -8970,13 +8971,13 @@
         <v>119</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
@@ -9026,7 +9027,7 @@
         <v>77</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>78</v>
@@ -9035,7 +9036,7 @@
         <v>89</v>
       </c>
       <c r="AH64" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="AI64" t="s" s="2">
         <v>101</v>
@@ -9044,10 +9045,10 @@
         <v>77</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="AM64" t="s" s="2">
         <v>77</v>
@@ -9058,7 +9059,7 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -9084,16 +9085,16 @@
         <v>109</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="O65" t="s" s="2">
         <v>77</v>
@@ -9121,10 +9122,10 @@
         <v>161</v>
       </c>
       <c r="X65" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="Y65" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="Z65" t="s" s="2">
         <v>77</v>
@@ -9142,7 +9143,7 @@
         <v>77</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>78</v>
@@ -9160,7 +9161,7 @@
         <v>77</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="AL65" t="s" s="2">
         <v>166</v>
@@ -9169,12 +9170,12 @@
         <v>77</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -9200,16 +9201,16 @@
         <v>170</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="O66" t="s" s="2">
         <v>77</v>
@@ -9237,10 +9238,10 @@
         <v>113</v>
       </c>
       <c r="X66" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="Y66" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="Z66" t="s" s="2">
         <v>77</v>
@@ -9258,7 +9259,7 @@
         <v>77</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>78</v>
@@ -9276,7 +9277,7 @@
         <v>77</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="AL66" t="s" s="2">
         <v>166</v>
@@ -9290,7 +9291,7 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -9313,16 +9314,16 @@
         <v>77</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" t="s" s="2">
@@ -9372,7 +9373,7 @@
         <v>77</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>78</v>
@@ -9381,7 +9382,7 @@
         <v>79</v>
       </c>
       <c r="AH67" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="AI67" t="s" s="2">
         <v>101</v>
@@ -9390,10 +9391,10 @@
         <v>77</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="AM67" t="s" s="2">
         <v>77</v>
@@ -9404,7 +9405,7 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -9430,16 +9431,16 @@
         <v>170</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="N68" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="O68" t="s" s="2">
         <v>77</v>
@@ -9467,10 +9468,10 @@
         <v>113</v>
       </c>
       <c r="X68" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="Y68" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="Z68" t="s" s="2">
         <v>77</v>
@@ -9488,7 +9489,7 @@
         <v>77</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>78</v>
@@ -9497,7 +9498,7 @@
         <v>89</v>
       </c>
       <c r="AH68" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="AI68" t="s" s="2">
         <v>101</v>
@@ -9506,7 +9507,7 @@
         <v>77</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="AL68" t="s" s="2">
         <v>166</v>
@@ -9520,7 +9521,7 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -9546,13 +9547,13 @@
         <v>77</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" t="s" s="2">
@@ -9602,7 +9603,7 @@
         <v>77</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>78</v>
@@ -9611,7 +9612,7 @@
         <v>79</v>
       </c>
       <c r="AH69" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="AI69" t="s" s="2">
         <v>101</v>
@@ -9620,10 +9621,10 @@
         <v>77</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="AM69" t="s" s="2">
         <v>77</v>
@@ -9634,10 +9635,10 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="C70" t="s" s="2">
         <v>77</v>
@@ -9659,13 +9660,13 @@
         <v>77</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="M70" s="2"/>
       <c r="N70" s="2"/>
@@ -9716,7 +9717,7 @@
         <v>77</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>78</v>
@@ -9728,16 +9729,16 @@
         <v>77</v>
       </c>
       <c r="AI70" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="AJ70" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="AM70" t="s" s="2">
         <v>77</v>
@@ -9748,7 +9749,7 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -9774,10 +9775,10 @@
         <v>91</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="M71" s="2"/>
       <c r="N71" s="2"/>
@@ -9828,7 +9829,7 @@
         <v>77</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>78</v>
@@ -9860,7 +9861,7 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -9889,7 +9890,7 @@
         <v>136</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="M72" t="s" s="2">
         <v>138</v>
@@ -9942,7 +9943,7 @@
         <v>77</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>78</v>
@@ -9974,11 +9975,11 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D73" s="2"/>
       <c r="E73" t="s" s="2">
@@ -10000,10 +10001,10 @@
         <v>135</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="M73" t="s" s="2">
         <v>138</v>
@@ -10058,7 +10059,7 @@
         <v>77</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>78</v>
@@ -10090,11 +10091,11 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="D74" s="2"/>
       <c r="E74" t="s" s="2">
@@ -10116,16 +10117,16 @@
         <v>91</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="N74" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="O74" t="s" s="2">
         <v>77</v>
@@ -10174,7 +10175,7 @@
         <v>77</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>78</v>
@@ -10192,10 +10193,10 @@
         <v>77</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AM74" t="s" s="2">
         <v>77</v>
@@ -10206,7 +10207,7 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -10232,16 +10233,16 @@
         <v>170</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="N75" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="O75" t="s" s="2">
         <v>77</v>
@@ -10266,13 +10267,13 @@
         <v>77</v>
       </c>
       <c r="W75" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="X75" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="Y75" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="Z75" t="s" s="2">
         <v>77</v>
@@ -10290,7 +10291,7 @@
         <v>77</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>78</v>
@@ -10308,10 +10309,10 @@
         <v>77</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AM75" t="s" s="2">
         <v>77</v>
@@ -10322,7 +10323,7 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -10345,17 +10346,17 @@
         <v>77</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="M76" s="2"/>
       <c r="N76" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="O76" t="s" s="2">
         <v>77</v>
@@ -10404,7 +10405,7 @@
         <v>77</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>78</v>
@@ -10422,21 +10423,21 @@
         <v>77</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AM76" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN76" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -10459,16 +10460,16 @@
         <v>77</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="N77" s="2"/>
       <c r="O77" t="s" s="2">
@@ -10518,7 +10519,7 @@
         <v>77</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>78</v>
@@ -10539,7 +10540,7 @@
         <v>77</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="AM77" t="s" s="2">
         <v>77</v>
@@ -10550,7 +10551,7 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
@@ -10576,13 +10577,13 @@
         <v>119</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="N78" s="2"/>
       <c r="O78" t="s" s="2">
@@ -10632,7 +10633,7 @@
         <v>77</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>78</v>
@@ -10641,7 +10642,7 @@
         <v>89</v>
       </c>
       <c r="AH78" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="AI78" t="s" s="2">
         <v>101</v>
@@ -10650,10 +10651,10 @@
         <v>77</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="AM78" t="s" s="2">
         <v>77</v>
@@ -10664,7 +10665,7 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
@@ -10690,16 +10691,16 @@
         <v>109</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="N79" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="O79" t="s" s="2">
         <v>77</v>
@@ -10727,10 +10728,10 @@
         <v>161</v>
       </c>
       <c r="X79" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="Y79" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="Z79" t="s" s="2">
         <v>77</v>
@@ -10748,7 +10749,7 @@
         <v>77</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>78</v>
@@ -10766,7 +10767,7 @@
         <v>77</v>
       </c>
       <c r="AK79" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="AL79" t="s" s="2">
         <v>166</v>
@@ -10775,12 +10776,12 @@
         <v>77</v>
       </c>
       <c r="AN79" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
@@ -10806,16 +10807,16 @@
         <v>170</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="N80" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="O80" t="s" s="2">
         <v>77</v>
@@ -10843,10 +10844,10 @@
         <v>113</v>
       </c>
       <c r="X80" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="Y80" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="Z80" t="s" s="2">
         <v>77</v>
@@ -10864,7 +10865,7 @@
         <v>77</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>78</v>
@@ -10882,7 +10883,7 @@
         <v>77</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="AL80" t="s" s="2">
         <v>166</v>
@@ -10896,7 +10897,7 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
@@ -10919,16 +10920,16 @@
         <v>77</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="N81" s="2"/>
       <c r="O81" t="s" s="2">
@@ -10978,7 +10979,7 @@
         <v>77</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>78</v>
@@ -10987,7 +10988,7 @@
         <v>79</v>
       </c>
       <c r="AH81" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="AI81" t="s" s="2">
         <v>101</v>
@@ -10996,10 +10997,10 @@
         <v>77</v>
       </c>
       <c r="AK81" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="AL81" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="AM81" t="s" s="2">
         <v>77</v>
@@ -11010,7 +11011,7 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
@@ -11036,16 +11037,16 @@
         <v>170</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="N82" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="O82" t="s" s="2">
         <v>77</v>
@@ -11073,10 +11074,10 @@
         <v>113</v>
       </c>
       <c r="X82" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="Y82" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="Z82" t="s" s="2">
         <v>77</v>
@@ -11094,7 +11095,7 @@
         <v>77</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>78</v>
@@ -11103,7 +11104,7 @@
         <v>89</v>
       </c>
       <c r="AH82" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="AI82" t="s" s="2">
         <v>101</v>
@@ -11112,7 +11113,7 @@
         <v>77</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="AL82" t="s" s="2">
         <v>166</v>
@@ -11126,7 +11127,7 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
@@ -11152,13 +11153,13 @@
         <v>77</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="N83" s="2"/>
       <c r="O83" t="s" s="2">
@@ -11208,7 +11209,7 @@
         <v>77</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>78</v>
@@ -11217,7 +11218,7 @@
         <v>79</v>
       </c>
       <c r="AH83" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="AI83" t="s" s="2">
         <v>101</v>
@@ -11226,10 +11227,10 @@
         <v>77</v>
       </c>
       <c r="AK83" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AL83" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="AM83" t="s" s="2">
         <v>77</v>
@@ -11240,10 +11241,10 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="C84" t="s" s="2">
         <v>77</v>
@@ -11265,13 +11266,13 @@
         <v>77</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="M84" s="2"/>
       <c r="N84" s="2"/>
@@ -11322,7 +11323,7 @@
         <v>77</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>78</v>
@@ -11334,16 +11335,16 @@
         <v>77</v>
       </c>
       <c r="AI84" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="AJ84" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK84" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AL84" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="AM84" t="s" s="2">
         <v>77</v>
@@ -11354,7 +11355,7 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
@@ -11380,10 +11381,10 @@
         <v>91</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="M85" s="2"/>
       <c r="N85" s="2"/>
@@ -11434,7 +11435,7 @@
         <v>77</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>78</v>
@@ -11466,7 +11467,7 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
@@ -11495,7 +11496,7 @@
         <v>136</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="M86" t="s" s="2">
         <v>138</v>
@@ -11548,7 +11549,7 @@
         <v>77</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>78</v>
@@ -11580,11 +11581,11 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D87" s="2"/>
       <c r="E87" t="s" s="2">
@@ -11606,10 +11607,10 @@
         <v>135</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="M87" t="s" s="2">
         <v>138</v>
@@ -11664,7 +11665,7 @@
         <v>77</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AF87" t="s" s="2">
         <v>78</v>
@@ -11696,11 +11697,11 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="D88" s="2"/>
       <c r="E88" t="s" s="2">
@@ -11722,16 +11723,16 @@
         <v>91</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="N88" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="O88" t="s" s="2">
         <v>77</v>
@@ -11780,7 +11781,7 @@
         <v>77</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="AF88" t="s" s="2">
         <v>78</v>
@@ -11798,10 +11799,10 @@
         <v>77</v>
       </c>
       <c r="AK88" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AL88" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AM88" t="s" s="2">
         <v>77</v>
@@ -11812,7 +11813,7 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
@@ -11838,16 +11839,16 @@
         <v>170</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="N89" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="O89" t="s" s="2">
         <v>77</v>
@@ -11872,13 +11873,13 @@
         <v>77</v>
       </c>
       <c r="W89" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="X89" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="Y89" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="Z89" t="s" s="2">
         <v>77</v>
@@ -11896,7 +11897,7 @@
         <v>77</v>
       </c>
       <c r="AE89" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AF89" t="s" s="2">
         <v>78</v>
@@ -11914,10 +11915,10 @@
         <v>77</v>
       </c>
       <c r="AK89" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="AL89" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AM89" t="s" s="2">
         <v>77</v>
@@ -11928,7 +11929,7 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" t="s" s="2">
@@ -11951,17 +11952,17 @@
         <v>77</v>
       </c>
       <c r="J90" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="M90" s="2"/>
       <c r="N90" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="O90" t="s" s="2">
         <v>77</v>
@@ -12010,7 +12011,7 @@
         <v>77</v>
       </c>
       <c r="AE90" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AF90" t="s" s="2">
         <v>78</v>
@@ -12028,21 +12029,21 @@
         <v>77</v>
       </c>
       <c r="AK90" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AL90" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AM90" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN90" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" t="s" s="2">
@@ -12065,16 +12066,16 @@
         <v>77</v>
       </c>
       <c r="J91" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="N91" s="2"/>
       <c r="O91" t="s" s="2">
@@ -12124,7 +12125,7 @@
         <v>77</v>
       </c>
       <c r="AE91" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="AF91" t="s" s="2">
         <v>78</v>
@@ -12145,7 +12146,7 @@
         <v>77</v>
       </c>
       <c r="AL91" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="AM91" t="s" s="2">
         <v>77</v>
@@ -12156,7 +12157,7 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" t="s" s="2">
@@ -12182,13 +12183,13 @@
         <v>119</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="N92" s="2"/>
       <c r="O92" t="s" s="2">
@@ -12238,7 +12239,7 @@
         <v>77</v>
       </c>
       <c r="AE92" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="AF92" t="s" s="2">
         <v>78</v>
@@ -12247,7 +12248,7 @@
         <v>89</v>
       </c>
       <c r="AH92" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="AI92" t="s" s="2">
         <v>101</v>
@@ -12256,10 +12257,10 @@
         <v>77</v>
       </c>
       <c r="AK92" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="AL92" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="AM92" t="s" s="2">
         <v>77</v>
@@ -12270,7 +12271,7 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" t="s" s="2">
@@ -12296,16 +12297,16 @@
         <v>109</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="N93" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="O93" t="s" s="2">
         <v>77</v>
@@ -12333,10 +12334,10 @@
         <v>161</v>
       </c>
       <c r="X93" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="Y93" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="Z93" t="s" s="2">
         <v>77</v>
@@ -12354,7 +12355,7 @@
         <v>77</v>
       </c>
       <c r="AE93" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="AF93" t="s" s="2">
         <v>78</v>
@@ -12372,7 +12373,7 @@
         <v>77</v>
       </c>
       <c r="AK93" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="AL93" t="s" s="2">
         <v>166</v>
@@ -12381,12 +12382,12 @@
         <v>77</v>
       </c>
       <c r="AN93" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B94" s="2"/>
       <c r="C94" t="s" s="2">
@@ -12412,16 +12413,16 @@
         <v>170</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="N94" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="O94" t="s" s="2">
         <v>77</v>
@@ -12449,10 +12450,10 @@
         <v>113</v>
       </c>
       <c r="X94" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="Y94" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="Z94" t="s" s="2">
         <v>77</v>
@@ -12470,7 +12471,7 @@
         <v>77</v>
       </c>
       <c r="AE94" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="AF94" t="s" s="2">
         <v>78</v>
@@ -12488,7 +12489,7 @@
         <v>77</v>
       </c>
       <c r="AK94" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="AL94" t="s" s="2">
         <v>166</v>
@@ -12502,7 +12503,7 @@
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="B95" s="2"/>
       <c r="C95" t="s" s="2">
@@ -12525,16 +12526,16 @@
         <v>77</v>
       </c>
       <c r="J95" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="N95" s="2"/>
       <c r="O95" t="s" s="2">
@@ -12584,7 +12585,7 @@
         <v>77</v>
       </c>
       <c r="AE95" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="AF95" t="s" s="2">
         <v>78</v>
@@ -12593,7 +12594,7 @@
         <v>79</v>
       </c>
       <c r="AH95" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="AI95" t="s" s="2">
         <v>101</v>
@@ -12602,10 +12603,10 @@
         <v>77</v>
       </c>
       <c r="AK95" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="AL95" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="AM95" t="s" s="2">
         <v>77</v>
@@ -12616,7 +12617,7 @@
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="B96" s="2"/>
       <c r="C96" t="s" s="2">
@@ -12642,16 +12643,16 @@
         <v>170</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="N96" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="O96" t="s" s="2">
         <v>77</v>
@@ -12679,10 +12680,10 @@
         <v>113</v>
       </c>
       <c r="X96" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="Y96" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="Z96" t="s" s="2">
         <v>77</v>
@@ -12700,7 +12701,7 @@
         <v>77</v>
       </c>
       <c r="AE96" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="AF96" t="s" s="2">
         <v>78</v>
@@ -12709,7 +12710,7 @@
         <v>89</v>
       </c>
       <c r="AH96" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="AI96" t="s" s="2">
         <v>101</v>
@@ -12718,7 +12719,7 @@
         <v>77</v>
       </c>
       <c r="AK96" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="AL96" t="s" s="2">
         <v>166</v>
@@ -12732,7 +12733,7 @@
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="B97" s="2"/>
       <c r="C97" t="s" s="2">
@@ -12758,13 +12759,13 @@
         <v>77</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="N97" s="2"/>
       <c r="O97" t="s" s="2">
@@ -12814,7 +12815,7 @@
         <v>77</v>
       </c>
       <c r="AE97" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="AF97" t="s" s="2">
         <v>78</v>
@@ -12823,7 +12824,7 @@
         <v>79</v>
       </c>
       <c r="AH97" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="AI97" t="s" s="2">
         <v>101</v>
@@ -12832,1626 +12833,20 @@
         <v>77</v>
       </c>
       <c r="AK97" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AL97" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="AM97" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN97" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" t="s" s="2">
-        <v>354</v>
-      </c>
-      <c r="B98" t="s" s="2">
-        <v>434</v>
-      </c>
-      <c r="C98" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="D98" s="2"/>
-      <c r="E98" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="F98" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="G98" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="H98" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I98" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J98" t="s" s="2">
-        <v>250</v>
-      </c>
-      <c r="K98" t="s" s="2">
-        <v>355</v>
-      </c>
-      <c r="L98" t="s" s="2">
-        <v>356</v>
-      </c>
-      <c r="M98" s="2"/>
-      <c r="N98" s="2"/>
-      <c r="O98" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P98" s="2"/>
-      <c r="Q98" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="R98" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S98" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T98" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U98" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V98" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W98" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X98" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y98" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z98" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA98" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB98" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC98" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD98" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE98" t="s" s="2">
-        <v>354</v>
-      </c>
-      <c r="AF98" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG98" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH98" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI98" t="s" s="2">
-        <v>359</v>
-      </c>
-      <c r="AJ98" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK98" t="s" s="2">
-        <v>360</v>
-      </c>
-      <c r="AL98" t="s" s="2">
-        <v>361</v>
-      </c>
-      <c r="AM98" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN98" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="99" hidden="true">
-      <c r="A99" t="s" s="2">
-        <v>362</v>
-      </c>
-      <c r="B99" s="2"/>
-      <c r="C99" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="D99" s="2"/>
-      <c r="E99" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="F99" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="G99" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H99" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I99" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J99" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="K99" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="L99" t="s" s="2">
-        <v>260</v>
-      </c>
-      <c r="M99" s="2"/>
-      <c r="N99" s="2"/>
-      <c r="O99" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P99" s="2"/>
-      <c r="Q99" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="R99" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S99" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T99" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U99" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V99" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W99" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X99" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y99" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z99" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA99" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB99" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC99" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD99" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE99" t="s" s="2">
-        <v>261</v>
-      </c>
-      <c r="AF99" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG99" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH99" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI99" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ99" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK99" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="AL99" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM99" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN99" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="100" hidden="true">
-      <c r="A100" t="s" s="2">
-        <v>363</v>
-      </c>
-      <c r="B100" s="2"/>
-      <c r="C100" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="D100" s="2"/>
-      <c r="E100" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="F100" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G100" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H100" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I100" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J100" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="K100" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="L100" t="s" s="2">
-        <v>263</v>
-      </c>
-      <c r="M100" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="N100" s="2"/>
-      <c r="O100" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P100" s="2"/>
-      <c r="Q100" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="R100" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S100" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T100" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U100" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V100" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W100" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X100" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y100" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z100" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA100" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB100" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC100" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD100" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE100" t="s" s="2">
-        <v>264</v>
-      </c>
-      <c r="AF100" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG100" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH100" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI100" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="AJ100" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK100" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="AL100" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM100" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN100" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="101" hidden="true">
-      <c r="A101" t="s" s="2">
-        <v>364</v>
-      </c>
-      <c r="B101" s="2"/>
-      <c r="C101" t="s" s="2">
-        <v>266</v>
-      </c>
-      <c r="D101" s="2"/>
-      <c r="E101" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="F101" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G101" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H101" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="I101" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="J101" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="K101" t="s" s="2">
-        <v>267</v>
-      </c>
-      <c r="L101" t="s" s="2">
-        <v>268</v>
-      </c>
-      <c r="M101" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="N101" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="O101" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P101" s="2"/>
-      <c r="Q101" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="R101" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S101" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T101" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U101" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V101" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W101" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X101" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y101" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z101" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA101" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB101" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC101" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD101" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE101" t="s" s="2">
-        <v>269</v>
-      </c>
-      <c r="AF101" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG101" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH101" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI101" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="AJ101" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK101" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="AL101" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM101" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN101" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="102" hidden="true">
-      <c r="A102" t="s" s="2">
-        <v>365</v>
-      </c>
-      <c r="B102" s="2"/>
-      <c r="C102" t="s" s="2">
-        <v>366</v>
-      </c>
-      <c r="D102" s="2"/>
-      <c r="E102" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="F102" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="G102" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H102" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I102" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J102" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="K102" t="s" s="2">
-        <v>367</v>
-      </c>
-      <c r="L102" t="s" s="2">
-        <v>368</v>
-      </c>
-      <c r="M102" t="s" s="2">
-        <v>369</v>
-      </c>
-      <c r="N102" t="s" s="2">
-        <v>370</v>
-      </c>
-      <c r="O102" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P102" s="2"/>
-      <c r="Q102" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="R102" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S102" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T102" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U102" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V102" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W102" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X102" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y102" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z102" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA102" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB102" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC102" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD102" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE102" t="s" s="2">
-        <v>365</v>
-      </c>
-      <c r="AF102" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG102" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH102" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI102" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ102" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK102" t="s" s="2">
-        <v>238</v>
-      </c>
-      <c r="AL102" t="s" s="2">
-        <v>239</v>
-      </c>
-      <c r="AM102" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN102" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="103" hidden="true">
-      <c r="A103" t="s" s="2">
-        <v>371</v>
-      </c>
-      <c r="B103" s="2"/>
-      <c r="C103" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="D103" s="2"/>
-      <c r="E103" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="F103" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="G103" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H103" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I103" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J103" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="K103" t="s" s="2">
-        <v>372</v>
-      </c>
-      <c r="L103" t="s" s="2">
-        <v>373</v>
-      </c>
-      <c r="M103" t="s" s="2">
-        <v>374</v>
-      </c>
-      <c r="N103" t="s" s="2">
-        <v>375</v>
-      </c>
-      <c r="O103" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P103" s="2"/>
-      <c r="Q103" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="R103" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S103" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T103" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U103" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V103" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W103" t="s" s="2">
-        <v>187</v>
-      </c>
-      <c r="X103" t="s" s="2">
-        <v>376</v>
-      </c>
-      <c r="Y103" t="s" s="2">
-        <v>377</v>
-      </c>
-      <c r="Z103" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA103" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB103" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC103" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD103" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE103" t="s" s="2">
-        <v>371</v>
-      </c>
-      <c r="AF103" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG103" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH103" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI103" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ103" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK103" t="s" s="2">
-        <v>178</v>
-      </c>
-      <c r="AL103" t="s" s="2">
-        <v>179</v>
-      </c>
-      <c r="AM103" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN103" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="104" hidden="true">
-      <c r="A104" t="s" s="2">
-        <v>378</v>
-      </c>
-      <c r="B104" s="2"/>
-      <c r="C104" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="D104" s="2"/>
-      <c r="E104" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="F104" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G104" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H104" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I104" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J104" t="s" s="2">
-        <v>225</v>
-      </c>
-      <c r="K104" t="s" s="2">
-        <v>379</v>
-      </c>
-      <c r="L104" t="s" s="2">
-        <v>380</v>
-      </c>
-      <c r="M104" s="2"/>
-      <c r="N104" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="O104" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P104" s="2"/>
-      <c r="Q104" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="R104" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S104" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T104" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U104" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V104" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W104" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X104" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y104" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z104" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA104" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB104" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC104" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD104" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE104" t="s" s="2">
-        <v>378</v>
-      </c>
-      <c r="AF104" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG104" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH104" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI104" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ104" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK104" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="AL104" t="s" s="2">
-        <v>231</v>
-      </c>
-      <c r="AM104" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN104" t="s" s="2">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="105" hidden="true">
-      <c r="A105" t="s" s="2">
-        <v>381</v>
-      </c>
-      <c r="B105" s="2"/>
-      <c r="C105" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="D105" s="2"/>
-      <c r="E105" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="F105" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="G105" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H105" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I105" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J105" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="K105" t="s" s="2">
-        <v>382</v>
-      </c>
-      <c r="L105" t="s" s="2">
-        <v>383</v>
-      </c>
-      <c r="M105" t="s" s="2">
-        <v>384</v>
-      </c>
-      <c r="N105" s="2"/>
-      <c r="O105" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P105" s="2"/>
-      <c r="Q105" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="R105" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S105" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T105" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U105" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V105" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W105" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X105" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y105" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z105" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA105" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB105" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC105" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD105" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE105" t="s" s="2">
-        <v>381</v>
-      </c>
-      <c r="AF105" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG105" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH105" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI105" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ105" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK105" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL105" t="s" s="2">
-        <v>385</v>
-      </c>
-      <c r="AM105" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN105" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="106" hidden="true">
-      <c r="A106" t="s" s="2">
-        <v>386</v>
-      </c>
-      <c r="B106" s="2"/>
-      <c r="C106" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="D106" s="2"/>
-      <c r="E106" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="F106" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="G106" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H106" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I106" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J106" t="s" s="2">
-        <v>119</v>
-      </c>
-      <c r="K106" t="s" s="2">
-        <v>387</v>
-      </c>
-      <c r="L106" t="s" s="2">
-        <v>388</v>
-      </c>
-      <c r="M106" t="s" s="2">
-        <v>389</v>
-      </c>
-      <c r="N106" s="2"/>
-      <c r="O106" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P106" s="2"/>
-      <c r="Q106" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="R106" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S106" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T106" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U106" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V106" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W106" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X106" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y106" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z106" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA106" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB106" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC106" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD106" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE106" t="s" s="2">
-        <v>386</v>
-      </c>
-      <c r="AF106" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG106" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH106" t="s" s="2">
-        <v>390</v>
-      </c>
-      <c r="AI106" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ106" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK106" t="s" s="2">
-        <v>391</v>
-      </c>
-      <c r="AL106" t="s" s="2">
-        <v>391</v>
-      </c>
-      <c r="AM106" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN106" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="107" hidden="true">
-      <c r="A107" t="s" s="2">
-        <v>392</v>
-      </c>
-      <c r="B107" s="2"/>
-      <c r="C107" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="D107" s="2"/>
-      <c r="E107" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="F107" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="G107" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H107" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I107" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J107" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="K107" t="s" s="2">
-        <v>393</v>
-      </c>
-      <c r="L107" t="s" s="2">
-        <v>394</v>
-      </c>
-      <c r="M107" t="s" s="2">
-        <v>395</v>
-      </c>
-      <c r="N107" t="s" s="2">
-        <v>396</v>
-      </c>
-      <c r="O107" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P107" s="2"/>
-      <c r="Q107" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="R107" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S107" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T107" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U107" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V107" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W107" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="X107" t="s" s="2">
-        <v>397</v>
-      </c>
-      <c r="Y107" t="s" s="2">
-        <v>398</v>
-      </c>
-      <c r="Z107" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA107" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB107" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC107" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD107" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE107" t="s" s="2">
-        <v>392</v>
-      </c>
-      <c r="AF107" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG107" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH107" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI107" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ107" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK107" t="s" s="2">
-        <v>399</v>
-      </c>
-      <c r="AL107" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="AM107" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN107" t="s" s="2">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="108" hidden="true">
-      <c r="A108" t="s" s="2">
-        <v>400</v>
-      </c>
-      <c r="B108" s="2"/>
-      <c r="C108" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="D108" s="2"/>
-      <c r="E108" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="F108" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="G108" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H108" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I108" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J108" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="K108" t="s" s="2">
-        <v>401</v>
-      </c>
-      <c r="L108" t="s" s="2">
-        <v>402</v>
-      </c>
-      <c r="M108" t="s" s="2">
-        <v>403</v>
-      </c>
-      <c r="N108" t="s" s="2">
-        <v>404</v>
-      </c>
-      <c r="O108" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P108" s="2"/>
-      <c r="Q108" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="R108" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S108" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T108" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U108" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V108" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W108" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="X108" t="s" s="2">
-        <v>405</v>
-      </c>
-      <c r="Y108" t="s" s="2">
-        <v>406</v>
-      </c>
-      <c r="Z108" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA108" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB108" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC108" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD108" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE108" t="s" s="2">
-        <v>400</v>
-      </c>
-      <c r="AF108" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG108" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH108" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI108" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ108" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK108" t="s" s="2">
-        <v>407</v>
-      </c>
-      <c r="AL108" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="AM108" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN108" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="109" hidden="true">
-      <c r="A109" t="s" s="2">
-        <v>408</v>
-      </c>
-      <c r="B109" s="2"/>
-      <c r="C109" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="D109" s="2"/>
-      <c r="E109" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="F109" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G109" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H109" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I109" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J109" t="s" s="2">
-        <v>435</v>
-      </c>
-      <c r="K109" t="s" s="2">
-        <v>409</v>
-      </c>
-      <c r="L109" t="s" s="2">
-        <v>410</v>
-      </c>
-      <c r="M109" t="s" s="2">
-        <v>411</v>
-      </c>
-      <c r="N109" s="2"/>
-      <c r="O109" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P109" s="2"/>
-      <c r="Q109" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="R109" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S109" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T109" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U109" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V109" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W109" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X109" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y109" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z109" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA109" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB109" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC109" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD109" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE109" t="s" s="2">
-        <v>408</v>
-      </c>
-      <c r="AF109" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG109" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH109" t="s" s="2">
-        <v>412</v>
-      </c>
-      <c r="AI109" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ109" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK109" t="s" s="2">
-        <v>413</v>
-      </c>
-      <c r="AL109" t="s" s="2">
-        <v>414</v>
-      </c>
-      <c r="AM109" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN109" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="110" hidden="true">
-      <c r="A110" t="s" s="2">
-        <v>415</v>
-      </c>
-      <c r="B110" s="2"/>
-      <c r="C110" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="D110" s="2"/>
-      <c r="E110" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="F110" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="G110" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H110" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I110" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J110" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="K110" t="s" s="2">
-        <v>416</v>
-      </c>
-      <c r="L110" t="s" s="2">
-        <v>417</v>
-      </c>
-      <c r="M110" t="s" s="2">
-        <v>418</v>
-      </c>
-      <c r="N110" t="s" s="2">
-        <v>419</v>
-      </c>
-      <c r="O110" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P110" s="2"/>
-      <c r="Q110" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="R110" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S110" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T110" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U110" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V110" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W110" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="X110" t="s" s="2">
-        <v>420</v>
-      </c>
-      <c r="Y110" t="s" s="2">
-        <v>421</v>
-      </c>
-      <c r="Z110" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA110" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB110" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC110" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD110" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE110" t="s" s="2">
-        <v>415</v>
-      </c>
-      <c r="AF110" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG110" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH110" t="s" s="2">
-        <v>412</v>
-      </c>
-      <c r="AI110" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ110" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK110" t="s" s="2">
-        <v>422</v>
-      </c>
-      <c r="AL110" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="AM110" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN110" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="111" hidden="true">
-      <c r="A111" t="s" s="2">
-        <v>423</v>
-      </c>
-      <c r="B111" s="2"/>
-      <c r="C111" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="D111" s="2"/>
-      <c r="E111" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="F111" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G111" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H111" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I111" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J111" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="K111" t="s" s="2">
-        <v>424</v>
-      </c>
-      <c r="L111" t="s" s="2">
-        <v>425</v>
-      </c>
-      <c r="M111" t="s" s="2">
-        <v>426</v>
-      </c>
-      <c r="N111" s="2"/>
-      <c r="O111" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P111" s="2"/>
-      <c r="Q111" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="R111" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S111" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T111" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U111" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V111" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W111" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X111" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y111" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z111" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA111" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB111" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC111" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD111" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE111" t="s" s="2">
-        <v>423</v>
-      </c>
-      <c r="AF111" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG111" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH111" t="s" s="2">
-        <v>390</v>
-      </c>
-      <c r="AI111" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ111" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK111" t="s" s="2">
-        <v>360</v>
-      </c>
-      <c r="AL111" t="s" s="2">
-        <v>427</v>
-      </c>
-      <c r="AM111" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN111" t="s" s="2">
         <v>77</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN111">
+  <autoFilter ref="A1:AN97">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -14461,7 +12856,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI110">
+  <conditionalFormatting sqref="A2:AI96">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/StructureDefinition-med-view-comp.xlsx
+++ b/StructureDefinition-med-view-comp.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-08T09:50:16+00:00</t>
+    <t>2022-04-08T10:19:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-med-view-comp.xlsx
+++ b/StructureDefinition-med-view-comp.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-08T10:19:08+00:00</t>
+    <t>2022-04-08T10:25:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-med-view-comp.xlsx
+++ b/StructureDefinition-med-view-comp.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-08T10:25:57+00:00</t>
+    <t>2022-04-08T10:44:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
